--- a/Civilworks cost/Work Schedule/Resources.xlsx
+++ b/Civilworks cost/Work Schedule/Resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -5778,7 +5778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -5920,7 +5920,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6497,8 +6497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Civilworks cost/Work Schedule/Resources.xlsx
+++ b/Civilworks cost/Work Schedule/Resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3983,7 +3983,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5778,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5901,7 +5901,6 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
@@ -6497,7 +6496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
